--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-816662.8249021197</v>
+        <v>-755730.3328022284</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17372041.81341184</v>
+        <v>16739564.35404541</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9658420.324122325</v>
+        <v>9657153.219620954</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>310.9248217542666</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>52.71851759133875</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>76.34470097276392</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -832,7 +832,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>209.9324537163693</v>
       </c>
       <c r="W4" t="n">
-        <v>192.4426045720672</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>359.703446428447</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>202.9646677140611</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>58.01302635684336</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>215.3029005859922</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>53.40840756313693</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1184,19 +1184,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1297,16 +1297,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,16 +1339,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>195.1399239737168</v>
       </c>
       <c r="V10" t="n">
-        <v>195.5820563215341</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>76.9039486657249</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>37.3927311327857</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,10 +1591,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056504</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.5532963163069</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65.07205481540667</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>18.37766187610482</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682203</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>104.6990987647611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>367.1129937754036</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>43.84238007842549</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>118.4105505036715</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2011,13 +2011,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2059,13 +2059,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>139.9514671241869</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2093,10 +2093,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>327.0708075886644</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>121.8990144057553</v>
       </c>
     </row>
     <row r="21">
@@ -2242,10 +2242,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>124.0599116349196</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>75.86622810093029</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>153.2006427344284</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2731,7 +2731,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742933594</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762359</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>259.4129604006783</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V34" t="n">
-        <v>267.8502427095265</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,13 +3433,13 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
         <v>71.53763939432403</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934476</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3566,7 +3566,7 @@
         <v>384.5711897043296</v>
       </c>
       <c r="X38" t="n">
-        <v>398.7153284477345</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
         <v>387.9675521245957</v>
@@ -3661,7 +3661,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934476</v>
+        <v>4.967932742934483</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3806,7 +3806,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245954</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="42">
@@ -3907,7 +3907,7 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591132</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432346</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934476</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>958.9147199317615</v>
+        <v>1842.763465846157</v>
       </c>
       <c r="C2" t="n">
-        <v>924.8126511555888</v>
+        <v>1404.62099302958</v>
       </c>
       <c r="D2" t="n">
-        <v>892.9432703704374</v>
+        <v>968.7112082040248</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>534.93646336232</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>107.0690337715277</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2289.225865919855</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2289.225865919855</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>2288.410815371292</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>2273.308755991007</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>2269.063036331065</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>308.7021231727439</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
-        <v>728.7550221176472</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>1753.036205714468</v>
       </c>
       <c r="W4" t="n">
-        <v>1076.258324397527</v>
+        <v>1481.00980130076</v>
       </c>
       <c r="X4" t="n">
-        <v>1076.258324397527</v>
+        <v>1235.618046634173</v>
       </c>
       <c r="Y4" t="n">
-        <v>1076.258324397527</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.471904237179</v>
+        <v>1156.295315593938</v>
       </c>
       <c r="C5" t="n">
-        <v>1141.369835461006</v>
+        <v>718.1528427773612</v>
       </c>
       <c r="D5" t="n">
-        <v>778.0330208868171</v>
+        <v>282.2430579518057</v>
       </c>
       <c r="E5" t="n">
-        <v>748.2986800855164</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1217.893900270473</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>1217.07884972191</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X5" t="n">
-        <v>1201.976790341625</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y5" t="n">
-        <v>1197.731070681682</v>
+        <v>1178.554482038442</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>874.0494664914149</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>874.0494664914149</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>232.4448594332978</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>232.4448594332978</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>173.8458429112338</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>173.8458429112338</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>705.2562847857771</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>459.8645301191896</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.4448594332978</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1853.983695241108</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1819.881626464935</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D8" t="n">
-        <v>1383.97184163938</v>
+        <v>828.0282190637201</v>
       </c>
       <c r="E8" t="n">
-        <v>1166.494164279791</v>
+        <v>798.2938782624194</v>
       </c>
       <c r="F8" t="n">
-        <v>738.6267346889992</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>337.2289033122631</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>48.09874875547938</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>47.68195938261938</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>47.68195938261938</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>47.68195938261938</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>47.68195938261938</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>47.68195938261938</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>488.3166236994875</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1078.380871059402</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1668.445118419317</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.943904377912</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2384.097969130969</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2300.446095314806</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2300.446095314806</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2300.446095314806</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2300.446095314806</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2299.631044766243</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2284.528985385958</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>2280.283265726016</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.8537043739121</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.3972432105544</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3069543571077</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.1865396840614</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.802701300223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.41761156640692</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.68195938261938</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>73.74563254307698</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>73.74563254307698</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>73.74563254307698</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>73.74563254307698</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>73.74563254307698</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>73.74563254307698</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>462.9457567750981</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.010004135013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.748942767088</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.921720861428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.466283309811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.287639640413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1340.951092640381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.83357470238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5108204355745</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6433846744545</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.1576054536753</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>950.0330659562569</v>
+        <v>822.7991990816217</v>
       </c>
       <c r="C10" t="n">
-        <v>777.4713544394818</v>
+        <v>650.2374875648467</v>
       </c>
       <c r="D10" t="n">
-        <v>611.5933616410045</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="E10" t="n">
-        <v>441.8353578917419</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>441.8353578917419</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>276.2440829175695</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>136.341908607944</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>47.68195938261938</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>134.2616445473092</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>409.0200991184448</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>715.1791555962881</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1174.663022777201</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1616.921825934846</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2036.591075160627</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2384.097969130969</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2384.097969130969</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2362.680147836341</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2362.680147836341</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2362.680147836341</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2084.247147089446</v>
+        <v>2046.411155696366</v>
       </c>
       <c r="V10" t="n">
-        <v>1886.689514441432</v>
+        <v>1759.455647566797</v>
       </c>
       <c r="W10" t="n">
-        <v>1614.663110027723</v>
+        <v>1487.429243153088</v>
       </c>
       <c r="X10" t="n">
-        <v>1369.271355361136</v>
+        <v>1242.037488486501</v>
       </c>
       <c r="Y10" t="n">
-        <v>1141.851684675244</v>
+        <v>1014.617817800609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2516.847335093837</v>
+        <v>2306.511711202298</v>
       </c>
       <c r="C11" t="n">
-        <v>2078.70486227726</v>
+        <v>1868.369238385721</v>
       </c>
       <c r="D11" t="n">
-        <v>1642.795077451705</v>
+        <v>1432.459453560165</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.02033261</v>
+        <v>998.6847087184606</v>
       </c>
       <c r="F11" t="n">
-        <v>781.1529030192075</v>
+        <v>570.8172791276684</v>
       </c>
       <c r="G11" t="n">
-        <v>379.7550716424714</v>
+        <v>169.4194477509322</v>
       </c>
       <c r="H11" t="n">
-        <v>90.62491708568766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="I11" t="n">
-        <v>90.20812771282766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="J11" t="n">
-        <v>90.20812771282766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="K11" t="n">
-        <v>90.20812771282766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="L11" t="n">
-        <v>90.20812771282766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="M11" t="n">
-        <v>1206.53370815907</v>
+        <v>937.0612005945642</v>
       </c>
       <c r="N11" t="n">
-        <v>2155.418058279086</v>
+        <v>2062.792184031011</v>
       </c>
       <c r="O11" t="n">
-        <v>3135.597724849393</v>
+        <v>3042.971850601317</v>
       </c>
       <c r="P11" t="n">
-        <v>3963.907599682789</v>
+        <v>3871.281725434714</v>
       </c>
       <c r="Q11" t="n">
-        <v>4510.406385641383</v>
+        <v>4417.780511393308</v>
       </c>
       <c r="R11" t="n">
-        <v>4510.406385641383</v>
+        <v>4586.934576146365</v>
       </c>
       <c r="S11" t="n">
-        <v>4426.75451182522</v>
+        <v>4586.934576146365</v>
       </c>
       <c r="T11" t="n">
-        <v>4388.984076337558</v>
+        <v>4586.934576146365</v>
       </c>
       <c r="U11" t="n">
-        <v>4129.761773654574</v>
+        <v>4327.712273463381</v>
       </c>
       <c r="V11" t="n">
-        <v>3767.144823588401</v>
+        <v>3965.095323397208</v>
       </c>
       <c r="W11" t="n">
-        <v>3362.289368999434</v>
+        <v>3560.239868808241</v>
       </c>
       <c r="X11" t="n">
-        <v>2943.146905578745</v>
+        <v>3141.097405387552</v>
       </c>
       <c r="Y11" t="n">
-        <v>2943.146905578744</v>
+        <v>2732.811281687205</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.3798727041204</v>
+        <v>597.9104365142201</v>
       </c>
       <c r="C12" t="n">
-        <v>489.9234115407627</v>
+        <v>491.4539753508624</v>
       </c>
       <c r="D12" t="n">
-        <v>394.833122687316</v>
+        <v>396.3636864974156</v>
       </c>
       <c r="E12" t="n">
-        <v>300.7127080142697</v>
+        <v>302.2432718243693</v>
       </c>
       <c r="F12" t="n">
-        <v>217.3288696304313</v>
+        <v>218.8594334405309</v>
       </c>
       <c r="G12" t="n">
-        <v>131.9437798966152</v>
+        <v>133.4743437067148</v>
       </c>
       <c r="H12" t="n">
-        <v>90.20812771282766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="I12" t="n">
-        <v>90.20812771282766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="J12" t="n">
-        <v>90.20812771282766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="K12" t="n">
-        <v>90.20812771282766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="L12" t="n">
-        <v>90.20812771282766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="M12" t="n">
-        <v>90.20812771282766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="N12" t="n">
-        <v>90.20812771282766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="O12" t="n">
-        <v>275.8130059860231</v>
+        <v>277.3435697961227</v>
       </c>
       <c r="P12" t="n">
-        <v>1095.536172465221</v>
+        <v>1097.066736275321</v>
       </c>
       <c r="Q12" t="n">
-        <v>1636.275111097297</v>
+        <v>1637.805674907396</v>
       </c>
       <c r="R12" t="n">
-        <v>1753.447889191636</v>
+        <v>1754.978453001736</v>
       </c>
       <c r="S12" t="n">
-        <v>1689.992451640019</v>
+        <v>1691.523015450119</v>
       </c>
       <c r="T12" t="n">
-        <v>1559.813807970621</v>
+        <v>1561.344371780721</v>
       </c>
       <c r="U12" t="n">
-        <v>1383.477260970589</v>
+        <v>1385.007824780689</v>
       </c>
       <c r="V12" t="n">
-        <v>1184.359743032589</v>
+        <v>1185.890306842688</v>
       </c>
       <c r="W12" t="n">
-        <v>999.0369887657828</v>
+        <v>1000.567552575882</v>
       </c>
       <c r="X12" t="n">
-        <v>844.1695530046628</v>
+        <v>845.7001168147625</v>
       </c>
       <c r="Y12" t="n">
-        <v>717.6837737838836</v>
+        <v>719.2143375939833</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>940.7041647897588</v>
+        <v>1082.136902909484</v>
       </c>
       <c r="C13" t="n">
-        <v>768.1424532729837</v>
+        <v>909.5751913927089</v>
       </c>
       <c r="D13" t="n">
-        <v>602.2644604745064</v>
+        <v>743.6971985942316</v>
       </c>
       <c r="E13" t="n">
-        <v>432.5064567252438</v>
+        <v>573.9391948449689</v>
       </c>
       <c r="F13" t="n">
-        <v>255.799402687</v>
+        <v>397.2321408067251</v>
       </c>
       <c r="G13" t="n">
-        <v>90.20812771282766</v>
+        <v>231.6408658325528</v>
       </c>
       <c r="H13" t="n">
-        <v>90.20812771282766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="I13" t="n">
-        <v>90.20812771282766</v>
+        <v>91.7386915229273</v>
       </c>
       <c r="J13" t="n">
-        <v>176.7878128775175</v>
+        <v>178.3183766876172</v>
       </c>
       <c r="K13" t="n">
-        <v>451.5462674486531</v>
+        <v>453.0768312587527</v>
       </c>
       <c r="L13" t="n">
-        <v>869.7561492166142</v>
+        <v>871.2867130267139</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.240016397527</v>
+        <v>1330.770580207627</v>
       </c>
       <c r="N13" t="n">
-        <v>1771.498819555172</v>
+        <v>1773.029383365271</v>
       </c>
       <c r="O13" t="n">
-        <v>2191.168068780953</v>
+        <v>2192.698632591053</v>
       </c>
       <c r="P13" t="n">
-        <v>2538.674962751295</v>
+        <v>2540.205526561395</v>
       </c>
       <c r="Q13" t="n">
-        <v>2706.867737615627</v>
+        <v>2708.398301425727</v>
       </c>
       <c r="R13" t="n">
-        <v>2706.867737615627</v>
+        <v>2708.398301425727</v>
       </c>
       <c r="S13" t="n">
-        <v>2547.626368913624</v>
+        <v>2708.398301425727</v>
       </c>
       <c r="T13" t="n">
-        <v>2301.746922492079</v>
+        <v>2462.518855004183</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.313921745184</v>
+        <v>2184.085854257288</v>
       </c>
       <c r="V13" t="n">
-        <v>1736.358413615615</v>
+        <v>1897.130346127718</v>
       </c>
       <c r="W13" t="n">
-        <v>1464.332009201906</v>
+        <v>1625.10394171401</v>
       </c>
       <c r="X13" t="n">
-        <v>1218.940254535319</v>
+        <v>1501.375192314363</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.522783508746</v>
+        <v>1273.955521628471</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2521.541471688799</v>
+        <v>2522.655246126038</v>
       </c>
       <c r="C14" t="n">
-        <v>2083.398998872222</v>
+        <v>2084.512773309461</v>
       </c>
       <c r="D14" t="n">
-        <v>1647.489214046666</v>
+        <v>1648.602988483906</v>
       </c>
       <c r="E14" t="n">
-        <v>1213.714469204961</v>
+        <v>1214.828243642201</v>
       </c>
       <c r="F14" t="n">
-        <v>785.8470396141693</v>
+        <v>786.960814051409</v>
       </c>
       <c r="G14" t="n">
-        <v>384.4492082374333</v>
+        <v>385.5629826746728</v>
       </c>
       <c r="H14" t="n">
-        <v>95.31905368064946</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="I14" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J14" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="K14" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="L14" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="M14" t="n">
-        <v>1251.95009951834</v>
+        <v>1171.768030342654</v>
       </c>
       <c r="N14" t="n">
-        <v>2377.681082954787</v>
+        <v>2297.499013779101</v>
       </c>
       <c r="O14" t="n">
-        <v>3357.860749525094</v>
+        <v>3277.678680349407</v>
       </c>
       <c r="P14" t="n">
-        <v>4186.17062435849</v>
+        <v>4105.988555182803</v>
       </c>
       <c r="Q14" t="n">
-        <v>4732.669410317085</v>
+        <v>4652.487341141397</v>
       </c>
       <c r="R14" t="n">
-        <v>4745.113215389473</v>
+        <v>4821.641405894454</v>
       </c>
       <c r="S14" t="n">
-        <v>4661.46134157331</v>
+        <v>4821.641405894454</v>
       </c>
       <c r="T14" t="n">
-        <v>4441.394114446349</v>
+        <v>4803.078111070105</v>
       </c>
       <c r="U14" t="n">
-        <v>4182.171811763365</v>
+        <v>4543.855808387122</v>
       </c>
       <c r="V14" t="n">
-        <v>3819.554861697192</v>
+        <v>4181.238858320949</v>
       </c>
       <c r="W14" t="n">
-        <v>3414.699407108225</v>
+        <v>3776.383403731982</v>
       </c>
       <c r="X14" t="n">
-        <v>2995.556943687536</v>
+        <v>3357.240940311292</v>
       </c>
       <c r="Y14" t="n">
-        <v>2587.270819987189</v>
+        <v>2948.954816610946</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>601.0740092990823</v>
+        <v>602.6045731091818</v>
       </c>
       <c r="C15" t="n">
-        <v>494.6175481357245</v>
+        <v>496.1481119458242</v>
       </c>
       <c r="D15" t="n">
-        <v>399.5272592822778</v>
+        <v>401.0578230923774</v>
       </c>
       <c r="E15" t="n">
-        <v>305.4068446092315</v>
+        <v>306.9374084193311</v>
       </c>
       <c r="F15" t="n">
-        <v>222.0230062253931</v>
+        <v>223.5535700354927</v>
       </c>
       <c r="G15" t="n">
-        <v>136.637916491577</v>
+        <v>138.1684803016766</v>
       </c>
       <c r="H15" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="I15" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J15" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="K15" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="L15" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="M15" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="N15" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="O15" t="n">
-        <v>280.507142580985</v>
+        <v>282.0377063910843</v>
       </c>
       <c r="P15" t="n">
-        <v>1100.230309060183</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.969247692259</v>
+        <v>1642.499811502358</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.142025786598</v>
+        <v>1759.672589596698</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.686588234981</v>
+        <v>1696.217152045081</v>
       </c>
       <c r="T15" t="n">
-        <v>1564.507944565583</v>
+        <v>1566.038508375683</v>
       </c>
       <c r="U15" t="n">
-        <v>1388.171397565551</v>
+        <v>1389.701961375651</v>
       </c>
       <c r="V15" t="n">
-        <v>1189.053879627551</v>
+        <v>1190.58444343765</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.731125360745</v>
+        <v>1005.261689170844</v>
       </c>
       <c r="X15" t="n">
-        <v>848.8636895996246</v>
+        <v>850.3942534097242</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3779103788454</v>
+        <v>723.908474188945</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1085.300475694346</v>
+        <v>1175.49098872977</v>
       </c>
       <c r="C16" t="n">
-        <v>912.7387641775714</v>
+        <v>1002.929277212995</v>
       </c>
       <c r="D16" t="n">
-        <v>746.8607713790941</v>
+        <v>837.051284414518</v>
       </c>
       <c r="E16" t="n">
-        <v>577.1027676298313</v>
+        <v>667.2932806652553</v>
       </c>
       <c r="F16" t="n">
-        <v>400.3957135915873</v>
+        <v>490.5862266270116</v>
       </c>
       <c r="G16" t="n">
-        <v>234.8044386174149</v>
+        <v>324.9949516528392</v>
       </c>
       <c r="H16" t="n">
-        <v>94.90226430778947</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="I16" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J16" t="n">
-        <v>181.4819494724793</v>
+        <v>183.0125132825789</v>
       </c>
       <c r="K16" t="n">
-        <v>456.2404040436149</v>
+        <v>457.7709678537145</v>
       </c>
       <c r="L16" t="n">
-        <v>874.4502858115759</v>
+        <v>875.9808496216755</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.934152992489</v>
+        <v>1335.464716802589</v>
       </c>
       <c r="N16" t="n">
-        <v>1776.192956150133</v>
+        <v>1777.723519960233</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.862205375915</v>
+        <v>2197.392769186014</v>
       </c>
       <c r="P16" t="n">
-        <v>2543.369099346256</v>
+        <v>2544.899663156356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2711.561874210589</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="R16" t="n">
-        <v>2711.561874210589</v>
+        <v>2691.674616726061</v>
       </c>
       <c r="S16" t="n">
-        <v>2711.561874210589</v>
+        <v>2532.433248024057</v>
       </c>
       <c r="T16" t="n">
-        <v>2465.682427789044</v>
+        <v>2286.553801602513</v>
       </c>
       <c r="U16" t="n">
-        <v>2187.24942704215</v>
+        <v>2008.120800855618</v>
       </c>
       <c r="V16" t="n">
-        <v>1900.29391891258</v>
+        <v>1721.165292726048</v>
       </c>
       <c r="W16" t="n">
-        <v>1628.267514498872</v>
+        <v>1449.13888831234</v>
       </c>
       <c r="X16" t="n">
-        <v>1382.875759832284</v>
+        <v>1203.747133645752</v>
       </c>
       <c r="Y16" t="n">
-        <v>1277.119094413334</v>
+        <v>1203.747133645752</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2521.541471688799</v>
+        <v>2457.566667134224</v>
       </c>
       <c r="C17" t="n">
-        <v>2083.398998872222</v>
+        <v>2019.424194317647</v>
       </c>
       <c r="D17" t="n">
-        <v>1647.489214046666</v>
+        <v>1648.602988483906</v>
       </c>
       <c r="E17" t="n">
-        <v>1213.714469204961</v>
+        <v>1214.828243642201</v>
       </c>
       <c r="F17" t="n">
-        <v>785.8470396141693</v>
+        <v>786.960814051409</v>
       </c>
       <c r="G17" t="n">
-        <v>384.4492082374333</v>
+        <v>385.5629826746728</v>
       </c>
       <c r="H17" t="n">
-        <v>95.31905368064946</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="I17" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J17" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="K17" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="L17" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="M17" t="n">
-        <v>1251.95009951834</v>
+        <v>1171.768030342654</v>
       </c>
       <c r="N17" t="n">
-        <v>2377.681082954787</v>
+        <v>2297.499013779101</v>
       </c>
       <c r="O17" t="n">
-        <v>3357.860749525094</v>
+        <v>3277.678680349407</v>
       </c>
       <c r="P17" t="n">
-        <v>4186.17062435849</v>
+        <v>4105.988555182803</v>
       </c>
       <c r="Q17" t="n">
-        <v>4732.669410317085</v>
+        <v>4652.487341141397</v>
       </c>
       <c r="R17" t="n">
-        <v>4745.113215389473</v>
+        <v>4821.641405894454</v>
       </c>
       <c r="S17" t="n">
-        <v>4661.46134157331</v>
+        <v>4737.989532078291</v>
       </c>
       <c r="T17" t="n">
-        <v>4441.394114446349</v>
+        <v>4737.989532078291</v>
       </c>
       <c r="U17" t="n">
-        <v>4182.171811763365</v>
+        <v>4478.767229395307</v>
       </c>
       <c r="V17" t="n">
-        <v>3819.554861697192</v>
+        <v>4116.150279329134</v>
       </c>
       <c r="W17" t="n">
-        <v>3775.269629294742</v>
+        <v>3711.294824740167</v>
       </c>
       <c r="X17" t="n">
-        <v>3356.127165874053</v>
+        <v>3292.152361319478</v>
       </c>
       <c r="Y17" t="n">
-        <v>2947.841042173706</v>
+        <v>2883.866237619131</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.0740092990823</v>
+        <v>602.6045731091818</v>
       </c>
       <c r="C18" t="n">
-        <v>494.6175481357245</v>
+        <v>496.1481119458242</v>
       </c>
       <c r="D18" t="n">
-        <v>399.5272592822778</v>
+        <v>401.0578230923774</v>
       </c>
       <c r="E18" t="n">
-        <v>305.4068446092315</v>
+        <v>306.9374084193311</v>
       </c>
       <c r="F18" t="n">
-        <v>222.0230062253931</v>
+        <v>223.5535700354927</v>
       </c>
       <c r="G18" t="n">
-        <v>136.637916491577</v>
+        <v>138.1684803016766</v>
       </c>
       <c r="H18" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="I18" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J18" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="K18" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="L18" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="M18" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="N18" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="O18" t="n">
-        <v>280.507142580985</v>
+        <v>282.0377063910843</v>
       </c>
       <c r="P18" t="n">
-        <v>1100.230309060183</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.969247692259</v>
+        <v>1642.499811502358</v>
       </c>
       <c r="R18" t="n">
-        <v>1758.142025786598</v>
+        <v>1759.672589596698</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.686588234981</v>
+        <v>1696.217152045081</v>
       </c>
       <c r="T18" t="n">
-        <v>1564.507944565583</v>
+        <v>1566.038508375683</v>
       </c>
       <c r="U18" t="n">
-        <v>1388.171397565551</v>
+        <v>1389.701961375651</v>
       </c>
       <c r="V18" t="n">
-        <v>1189.053879627551</v>
+        <v>1190.58444343765</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.731125360745</v>
+        <v>1005.261689170844</v>
       </c>
       <c r="X18" t="n">
-        <v>848.8636895996246</v>
+        <v>850.3942534097242</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3779103788454</v>
+        <v>723.908474188945</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1173.960424919671</v>
+        <v>805.9266655355013</v>
       </c>
       <c r="C19" t="n">
-        <v>1001.398713402896</v>
+        <v>686.3200488651261</v>
       </c>
       <c r="D19" t="n">
-        <v>835.5207206044186</v>
+        <v>520.4420560666488</v>
       </c>
       <c r="E19" t="n">
-        <v>665.7627168551558</v>
+        <v>350.6840523173861</v>
       </c>
       <c r="F19" t="n">
-        <v>489.0556628169119</v>
+        <v>350.6840523173861</v>
       </c>
       <c r="G19" t="n">
-        <v>323.4643878427396</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="H19" t="n">
-        <v>183.5622135331141</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="I19" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J19" t="n">
-        <v>181.4819494724793</v>
+        <v>183.0125132825789</v>
       </c>
       <c r="K19" t="n">
-        <v>456.2404040436149</v>
+        <v>457.7709678537145</v>
       </c>
       <c r="L19" t="n">
-        <v>874.4502858115759</v>
+        <v>875.9808496216755</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.934152992489</v>
+        <v>1335.464716802589</v>
       </c>
       <c r="N19" t="n">
-        <v>1776.192956150133</v>
+        <v>1777.723519960233</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.862205375915</v>
+        <v>2197.392769186014</v>
       </c>
       <c r="P19" t="n">
-        <v>2543.369099346256</v>
+        <v>2544.899663156356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2711.561874210589</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="R19" t="n">
-        <v>2690.144052915961</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="S19" t="n">
-        <v>2530.902684213957</v>
+        <v>2553.851069318685</v>
       </c>
       <c r="T19" t="n">
-        <v>2285.023237792413</v>
+        <v>2307.971622897141</v>
       </c>
       <c r="U19" t="n">
-        <v>2006.590237045518</v>
+        <v>2029.538622150246</v>
       </c>
       <c r="V19" t="n">
-        <v>1865.225118738258</v>
+        <v>1742.583114020676</v>
       </c>
       <c r="W19" t="n">
-        <v>1593.19871432455</v>
+        <v>1470.556709606968</v>
       </c>
       <c r="X19" t="n">
-        <v>1593.19871432455</v>
+        <v>1225.16495494038</v>
       </c>
       <c r="Y19" t="n">
-        <v>1365.779043638658</v>
+        <v>997.7452842544885</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2160.971249502282</v>
+        <v>2522.655246126038</v>
       </c>
       <c r="C20" t="n">
-        <v>1722.828776685705</v>
+        <v>2084.512773309461</v>
       </c>
       <c r="D20" t="n">
-        <v>1286.91899186015</v>
+        <v>1648.602988483906</v>
       </c>
       <c r="E20" t="n">
-        <v>853.1442470184447</v>
+        <v>1214.828243642201</v>
       </c>
       <c r="F20" t="n">
-        <v>425.2768174276525</v>
+        <v>786.960814051409</v>
       </c>
       <c r="G20" t="n">
-        <v>94.90226430778947</v>
+        <v>385.5629826746728</v>
       </c>
       <c r="H20" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="I20" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J20" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="K20" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="L20" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="M20" t="n">
-        <v>1251.95009951834</v>
+        <v>1171.768030342654</v>
       </c>
       <c r="N20" t="n">
-        <v>2377.681082954787</v>
+        <v>2297.499013779101</v>
       </c>
       <c r="O20" t="n">
-        <v>3357.860749525094</v>
+        <v>3277.678680349407</v>
       </c>
       <c r="P20" t="n">
-        <v>4186.17062435849</v>
+        <v>4105.988555182803</v>
       </c>
       <c r="Q20" t="n">
-        <v>4732.669410317085</v>
+        <v>4652.487341141397</v>
       </c>
       <c r="R20" t="n">
-        <v>4745.113215389473</v>
+        <v>4821.641405894454</v>
       </c>
       <c r="S20" t="n">
-        <v>4661.46134157331</v>
+        <v>4737.989532078291</v>
       </c>
       <c r="T20" t="n">
-        <v>4441.394114446349</v>
+        <v>4517.922304951329</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.171811763365</v>
+        <v>4258.700002268346</v>
       </c>
       <c r="V20" t="n">
-        <v>3819.554861697192</v>
+        <v>3896.083052202172</v>
       </c>
       <c r="W20" t="n">
-        <v>3414.699407108225</v>
+        <v>3491.227597613206</v>
       </c>
       <c r="X20" t="n">
-        <v>2995.556943687536</v>
+        <v>3072.085134192517</v>
       </c>
       <c r="Y20" t="n">
-        <v>2587.270819987189</v>
+        <v>2948.954816610946</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.0740092990823</v>
+        <v>602.6045731091818</v>
       </c>
       <c r="C21" t="n">
-        <v>494.6175481357245</v>
+        <v>496.1481119458242</v>
       </c>
       <c r="D21" t="n">
-        <v>399.5272592822778</v>
+        <v>401.0578230923774</v>
       </c>
       <c r="E21" t="n">
-        <v>305.4068446092315</v>
+        <v>306.9374084193311</v>
       </c>
       <c r="F21" t="n">
-        <v>222.0230062253931</v>
+        <v>223.5535700354927</v>
       </c>
       <c r="G21" t="n">
-        <v>136.637916491577</v>
+        <v>138.1684803016766</v>
       </c>
       <c r="H21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="I21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="K21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="L21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="M21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="N21" t="n">
-        <v>94.90226430778947</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="O21" t="n">
-        <v>280.507142580985</v>
+        <v>282.0377063910843</v>
       </c>
       <c r="P21" t="n">
-        <v>1100.230309060183</v>
+        <v>1101.760872870283</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.969247692259</v>
+        <v>1642.499811502358</v>
       </c>
       <c r="R21" t="n">
-        <v>1758.142025786598</v>
+        <v>1759.672589596698</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.686588234981</v>
+        <v>1696.217152045081</v>
       </c>
       <c r="T21" t="n">
-        <v>1564.507944565583</v>
+        <v>1566.038508375683</v>
       </c>
       <c r="U21" t="n">
-        <v>1388.171397565551</v>
+        <v>1389.701961375651</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.053879627551</v>
+        <v>1190.58444343765</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.731125360745</v>
+        <v>1005.261689170844</v>
       </c>
       <c r="X21" t="n">
-        <v>848.8636895996246</v>
+        <v>850.3942534097242</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3779103788454</v>
+        <v>723.908474188945</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>945.3983013847208</v>
+        <v>965.1680342375048</v>
       </c>
       <c r="C22" t="n">
-        <v>772.8365898679457</v>
+        <v>792.6063227207297</v>
       </c>
       <c r="D22" t="n">
-        <v>606.9585970694684</v>
+        <v>792.6063227207297</v>
       </c>
       <c r="E22" t="n">
-        <v>437.2005933202056</v>
+        <v>667.2932806652553</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4935392819618</v>
+        <v>490.5862266270116</v>
       </c>
       <c r="G22" t="n">
-        <v>94.90226430778947</v>
+        <v>324.9949516528392</v>
       </c>
       <c r="H22" t="n">
-        <v>94.90226430778947</v>
+        <v>185.0927773432138</v>
       </c>
       <c r="I22" t="n">
-        <v>94.90226430778966</v>
+        <v>96.43282811788907</v>
       </c>
       <c r="J22" t="n">
-        <v>181.4819494724795</v>
+        <v>183.0125132825789</v>
       </c>
       <c r="K22" t="n">
-        <v>456.2404040436151</v>
+        <v>457.7709678537145</v>
       </c>
       <c r="L22" t="n">
-        <v>874.4502858115761</v>
+        <v>875.9808496216755</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.934152992489</v>
+        <v>1335.464716802589</v>
       </c>
       <c r="N22" t="n">
-        <v>1776.192956150134</v>
+        <v>1777.723519960233</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.862205375915</v>
+        <v>2197.392769186014</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.369099346257</v>
+        <v>2544.899663156356</v>
       </c>
       <c r="Q22" t="n">
-        <v>2711.561874210589</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="R22" t="n">
-        <v>2711.561874210589</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="S22" t="n">
-        <v>2693.322705167904</v>
+        <v>2713.092438020689</v>
       </c>
       <c r="T22" t="n">
-        <v>2447.44325874636</v>
+        <v>2467.212991599144</v>
       </c>
       <c r="U22" t="n">
-        <v>2169.010257999465</v>
+        <v>2188.779990852249</v>
       </c>
       <c r="V22" t="n">
-        <v>1882.054749869895</v>
+        <v>1901.82448272268</v>
       </c>
       <c r="W22" t="n">
-        <v>1610.028345456187</v>
+        <v>1629.798078308971</v>
       </c>
       <c r="X22" t="n">
-        <v>1364.636590789599</v>
+        <v>1384.406323642384</v>
       </c>
       <c r="Y22" t="n">
-        <v>1137.216920103708</v>
+        <v>1156.986652956492</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3800.474012941002</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4628.783887774398</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6172,19 +6172,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2642.287896536276</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2396.408450114731</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U25" t="n">
-        <v>2117.975449367836</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
         <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954128</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
         <v>1600.55729028754</v>
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,22 +6300,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
         <v>287.8657185439749</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674088</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>673.121292818146</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799022</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2562.150454693625</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954128</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992528</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886293</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030281</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666415</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412738</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708294</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773249</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>1405.586141896919</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289923</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.64750088558</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.167761876911</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825366</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298639</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7072,16 +7072,16 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886287</v>
+        <v>910.359044888629</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030274</v>
+        <v>760.8807595030279</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666408</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412731</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G37" t="n">
         <v>298.0235489799775</v>
@@ -7108,13 +7108,13 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2299.660900751065</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2663.241147956767</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2847.507276056459</v>
       </c>
       <c r="R37" t="n">
         <v>2842.489162174706</v>
@@ -7126,7 +7126,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V37" t="n">
         <v>1937.578667826198</v>
@@ -7135,7 +7135,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571654</v>
+        <v>1452.959923571655</v>
       </c>
       <c r="Y37" t="n">
         <v>1241.939960298639</v>
@@ -7157,46 +7157,46 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581783</v>
+        <v>322.5559067392892</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581783</v>
+        <v>1397.615872992149</v>
       </c>
       <c r="M38" t="n">
-        <v>1254.614538886369</v>
+        <v>1397.615872992149</v>
       </c>
       <c r="N38" t="n">
-        <v>2380.345522322816</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O38" t="n">
-        <v>3360.525188893122</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P38" t="n">
-        <v>4188.835063726518</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q38" t="n">
-        <v>4735.333849685113</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387605</v>
@@ -7205,10 +7205,10 @@
         <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W38" t="n">
         <v>3629.919912574025</v>
@@ -7217,7 +7217,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.60290339162182</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581783</v>
+        <v>422.1612283578341</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581783</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850155</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7366,10 +7366,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
@@ -7394,10 +7394,10 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
@@ -7418,7 +7418,7 @@
         <v>97.56670367581783</v>
       </c>
       <c r="M41" t="n">
-        <v>1254.614538886369</v>
+        <v>1228.461808239091</v>
       </c>
       <c r="N41" t="n">
         <v>2354.192791675538</v>
@@ -7454,7 +7454,7 @@
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581783</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="O42" t="n">
         <v>283.1715819490133</v>
@@ -7549,19 +7549,19 @@
         <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080655</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716789</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581783</v>
@@ -7834,16 +7834,16 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>288.796249040161</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>33.39342414375221</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8301,19 +8301,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,13 +8380,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8462,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>445.0855195119881</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>596.0244922827422</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.0244922827424</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.1314386182032</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>596.0244922827422</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8614,7 +8614,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>309.2515721998417</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1127.601596410346</v>
+        <v>853.8611202743807</v>
       </c>
       <c r="N11" t="n">
-        <v>958.4690405252691</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1086.197173964409</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>12.56950007311934</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1086.197173964409</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>12.56950007311934</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>1086.197173964409</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>12.56950007311934</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9656,10 +9656,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>489.1496219844275</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>-1.94019576702396e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9896,7 +9896,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>-1.94019576702396e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1105.865833350039</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>227.2618212762337</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>144.4457920260393</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.03656536949897315</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11066,10 +11066,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>1142.31828743765</v>
       </c>
       <c r="N41" t="n">
-        <v>1110.685103827444</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>180.2853786833894</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>209.334904345491</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>180.473823722906</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>356.964519964652</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.488892979587</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>161.9268490649752</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>120.4463752142717</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>64.43769320189631</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>356.9645199646515</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>52.4255438979358</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>70.31304547430432</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>282.3042480575878</v>
       </c>
     </row>
     <row r="21">
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>44.00051207685047</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>81.78272691405301</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>122.4480280049973</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>2.446659489829187</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>857835.7118246537</v>
+        <v>834874.5659955371</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>768507.6609230828</v>
+        <v>777963.8416815845</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>797509.1333570654</v>
+        <v>806965.3141155669</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>797509.1333570656</v>
+        <v>806965.3141155669</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797509.1333570656</v>
+        <v>806965.3141155669</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857835.7118246537</v>
+        <v>842972.1346197637</v>
       </c>
     </row>
     <row r="13">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80422.09798356125</v>
+        <v>78269.49056208157</v>
       </c>
       <c r="C2" t="n">
-        <v>80422.09798356125</v>
+        <v>80422.09798356127</v>
       </c>
       <c r="D2" t="n">
-        <v>80422.09798356127</v>
+        <v>80422.09798356124</v>
       </c>
       <c r="E2" t="n">
-        <v>72047.593211539</v>
+        <v>72934.11015764854</v>
       </c>
       <c r="F2" t="n">
-        <v>74766.48125222491</v>
+        <v>75652.99819833439</v>
       </c>
       <c r="G2" t="n">
-        <v>74766.48125222488</v>
+        <v>75652.99819833439</v>
       </c>
       <c r="H2" t="n">
-        <v>74766.48125222488</v>
+        <v>75652.99819833439</v>
       </c>
       <c r="I2" t="n">
-        <v>79028.63762060281</v>
+        <v>79028.63762060282</v>
       </c>
       <c r="J2" t="n">
-        <v>79028.63762060281</v>
+        <v>79028.63762060282</v>
       </c>
       <c r="K2" t="n">
         <v>79028.63762060281</v>
       </c>
       <c r="L2" t="n">
-        <v>80422.09798356135</v>
+        <v>79028.63762060281</v>
       </c>
       <c r="M2" t="n">
         <v>80422.09798356135</v>
@@ -26350,7 +26350,7 @@
         <v>80422.09798356125</v>
       </c>
       <c r="O2" t="n">
-        <v>80422.09798356125</v>
+        <v>80422.09798356137</v>
       </c>
       <c r="P2" t="n">
         <v>80422.09798356131</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53344.06581631822</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>158717.2285962116</v>
+        <v>143084.0826105966</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510031</v>
+        <v>16812.40227510025</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24459.99848317884</v>
+        <v>19372.3852463601</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56451.54017170869</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132471.1406570153</v>
+        <v>132411.7197519882</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>105313.4899328885</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>129865.9200706961</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>735.1045119022451</v>
+        <v>744.1496802127187</v>
       </c>
       <c r="F4" t="n">
-        <v>762.8454367128345</v>
+        <v>771.890605023308</v>
       </c>
       <c r="G4" t="n">
-        <v>762.8454367128345</v>
+        <v>771.890605023308</v>
       </c>
       <c r="H4" t="n">
-        <v>762.8454367128345</v>
+        <v>771.890605023308</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26445,19 +26445,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>6148.690207415863</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>6148.690207415863</v>
+        <v>6148.690207415872</v>
       </c>
       <c r="N4" t="n">
-        <v>16466.62778780236</v>
+        <v>16466.62778780233</v>
       </c>
       <c r="O4" t="n">
         <v>16466.62778780235</v>
       </c>
       <c r="P4" t="n">
-        <v>16466.62778780234</v>
+        <v>16466.62778780235</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>69865.88913079072</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>68558.17706174903</v>
+        <v>69721.40555742473</v>
       </c>
       <c r="F5" t="n">
-        <v>72125.72087391999</v>
+        <v>73288.94936959569</v>
       </c>
       <c r="G5" t="n">
-        <v>72125.72087391999</v>
+        <v>73288.94936959569</v>
       </c>
       <c r="H5" t="n">
-        <v>72125.72087391999</v>
+        <v>73288.94936959569</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26497,13 +26497,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826067</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
         <v>75515.6147260897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290362.0840831308</v>
+        <v>-324992.0993069675</v>
       </c>
       <c r="C6" t="n">
-        <v>-148170.7834234209</v>
+        <v>-107294.8327964471</v>
       </c>
       <c r="D6" t="n">
-        <v>-172653.7770342437</v>
+        <v>-107294.8327964471</v>
       </c>
       <c r="E6" t="n">
-        <v>-155962.9169583239</v>
+        <v>-140740.3274876841</v>
       </c>
       <c r="F6" t="n">
-        <v>-14934.48733350821</v>
+        <v>-15299.7290478053</v>
       </c>
       <c r="G6" t="n">
-        <v>1877.914941592069</v>
+        <v>1512.673227294945</v>
       </c>
       <c r="H6" t="n">
-        <v>1877.914941592069</v>
+        <v>1512.673227294945</v>
       </c>
       <c r="I6" t="n">
-        <v>-23955.93185915114</v>
+        <v>-18891.54296171505</v>
       </c>
       <c r="J6" t="n">
-        <v>-110510.3987209625</v>
+        <v>-174170.5064330611</v>
       </c>
       <c r="K6" t="n">
-        <v>504.0666240276914</v>
+        <v>480.8422846450509</v>
       </c>
       <c r="L6" t="n">
-        <v>-61261.29093382387</v>
+        <v>480.8422846450509</v>
       </c>
       <c r="M6" t="n">
-        <v>-137280.8914191305</v>
+        <v>-137221.4705141034</v>
       </c>
       <c r="N6" t="n">
-        <v>-11560.14453033081</v>
+        <v>-11560.14453033076</v>
       </c>
       <c r="O6" t="n">
-        <v>-11560.1445303308</v>
+        <v>-11560.14453033068</v>
       </c>
       <c r="P6" t="n">
-        <v>-11560.14453033073</v>
+        <v>-11560.14453033074</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>596.0244922827422</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1127.601596410346</v>
+        <v>1146.733644036591</v>
       </c>
       <c r="F4" t="n">
-        <v>1186.278303847368</v>
+        <v>1205.410351473613</v>
       </c>
       <c r="G4" t="n">
-        <v>1186.278303847368</v>
+        <v>1205.410351473613</v>
       </c>
       <c r="H4" t="n">
-        <v>1186.278303847368</v>
+        <v>1205.410351473613</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>171.7286347626379</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>531.5771041276034</v>
+        <v>479.2184374287341</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702251</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.98219953737703</v>
+        <v>72.85015191113189</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>171.7286347626379</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.5771041276034</v>
+        <v>479.2184374287341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>171.7286347626379</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.5771041276034</v>
+        <v>479.2184374287341</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702251</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111.111753025792</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>344.66533547163</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>74.1534993319045</v>
       </c>
       <c r="W4" t="n">
-        <v>76.86353579750417</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27616,22 +27616,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>71.84724054885294</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>226.4723296792267</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,7 +27667,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>106.2061865136492</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>214.1340968072955</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>370.1803477317474</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>80.50874676570888</v>
       </c>
       <c r="V10" t="n">
-        <v>88.5038967267397</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874788</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874765</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>288.796249040161</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>33.39342414375221</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35100,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>445.0855195119881</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>596.0244922827422</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.0244922827424</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,7 +35246,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35264,10 +35264,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.1314386182032</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>596.0244922827422</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>309.2515721998417</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,10 +35416,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1127.601596410346</v>
+        <v>853.8611202743807</v>
       </c>
       <c r="N11" t="n">
-        <v>958.4690405252691</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>1086.197173964409</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>12.56950007311934</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1086.197173964409</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>12.56950007311934</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>1086.197173964409</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>12.56950007311934</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36373,13 +36373,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>489.1496219844275</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36616,7 +36616,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1105.865833350039</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>227.2618212762337</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>144.4457920260393</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.03656536949897315</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37786,10 +37786,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>1142.31828743765</v>
       </c>
       <c r="N41" t="n">
-        <v>1110.685103827444</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
